--- a/va_facility_data_2025-02-20/Erie VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Erie%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Erie VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Erie%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rd889da130fd74b51b3c7ee3862d731b1"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R590348100a0941cab522e2ad9ef25dd1"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rcd6a81530c774db095fa9af92e8b6872"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R25082e616b4e4da7adc7c4fe0a49967e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R1aa1681ed82541718c58054ff3cb897b"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R72a749b28cc24602a82052df61e6a5b3"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R33cb35c1369f4e029f59f8f11d9b4ca4"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rccd01460f52e45b284051e71123dea8f"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R2ccb22dc9de046faaa95bdf6134117f2"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Re0bfbbd9124f49f1b47cef126641fb05"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R19893c8299214ac0902150823eb3ed2b"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R8549064affc140a5936633be250b0091"/>
   </x:sheets>
 </x:workbook>
 </file>
